--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Picardie/Liste_des_espèces_végétales_protégées_en_Picardie.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Picardie/Liste_des_espèces_végétales_protégées_en_Picardie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Picardie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Picardie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces végétales protégées en Picardie est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Picardie, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 17 août 1989[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces végétales protégées en Picardie est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Picardie, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 17 août 1989.
 Les noms de cette liste ont été mis à jour à l'aide de Tela Botanica, sauf pour l’Ophrys sphegodes (voir ci-dessous).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Picardie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Picardie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Equisetum hyemale L., Prêle d'hiver.
 Equisetum sylvaticum L., Prêle des bois.
 Botrychium lunaria (L.) Sw., Botriche lunaire.
-Gymnocarpium dryopteris (L.) Newman, synonyme[2] de Currania dryopteris (L.) Wherry, Polypode du chêne.
+Gymnocarpium dryopteris (L.) Newman, synonyme de Currania dryopteris (L.) Wherry, Polypode du chêne.
 Ophioglossum vulgatum L., Ophioglosse commune.
 Oreopteris limbosperma (Bellardi ex All.) Holub, Fougère des montagnes.
 Osmunda regalis L., Osmonde royale.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Picardie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Picardie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monocotylédones
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anacamptis palustris (Jacq.) R.M.Bateman, Pridgeon &amp; M.W.Chase, synonyme d’Orchis palustris Jacq., Orchis des marais.
 Anthericum ramosum L., Phalangère rameuse.
 Bothriochloa ischaemum (L.) Keng, Barbon pied-de-poule.
@@ -585,7 +605,7 @@
 Luronium natans (L.) Raf., Flûteau nageant.
 Nardus stricta L., Nard raide.
 Neotinea ustulata (L.) R.M.Bateman, Pridgeon &amp; M.W.Chase, synonyme d’Orchis ustulata L., Orchis brûlé.
-Ophrys sphegodes Mill., Ophrys araignée (s.l.)[3].
+Ophrys sphegodes Mill., Ophrys araignée (s.l.).
 Ophrys sphegodes Mill. subsp. araneola (Reichenb.) Laínz, Ophrys litigieux
 Ophrys sphegodes Mill. subsp. sphegodes, Ophrys sphegodes
 Ophrys sphegodes Mill. subsp. jeanpertii (E.G. Camus) J. Duvigneaud, Ophrys de Jeanpert
@@ -600,7 +620,43 @@
 Sesleria caerulea subsp. caerulea, synonyme de Sesleria albicans Kit. ex Schult., Seslérie blanchâtre.
 Sparganium minimum Wallr., Petit rubanier.
 Spiranthes spiralis (L.) Chevall, Spiranthe d'automne.
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Picardie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Picardie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aconitum napellus subsp. lusitanicum Rouy, synonyme d’A. napellus subsp. neomontanum (Wulfen) Gáyer, Aconit du Portugal.
 Alchemilla glaucescens Wallr., Alchémille glauque.
 Armeria alliacea (Cav.) Hoffmanns. &amp; Link, Armérie faux-plantain.
